--- a/Jogos_da_Semana_FlashScore_2025-05-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-25.xlsx
@@ -662,10 +662,10 @@
         <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
         <v>1.44</v>
@@ -924,10 +924,10 @@
         <v>3.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T4" t="n">
         <v>17</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
         <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L10" t="n">
         <v>1.1</v>
@@ -1656,10 +1656,10 @@
         <v>4.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T10" t="n">
         <v>26</v>
@@ -1674,10 +1674,10 @@
         <v>51</v>
       </c>
       <c r="X10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="n">
         <v>29</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>26</v>
       </c>
       <c r="Z10" t="n">
         <v>29</v>
@@ -1704,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -1778,10 +1778,10 @@
         <v>3.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T11" t="n">
         <v>17</v>
@@ -1882,10 +1882,10 @@
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N12" t="n">
         <v>1.73</v>
@@ -1900,7 +1900,7 @@
         <v>3.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
         <v>2.2</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
         <v>1.1</v>
@@ -2025,13 +2025,13 @@
         <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
@@ -2046,10 +2046,10 @@
         <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
         <v>19</v>
@@ -2064,7 +2064,7 @@
         <v>9.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
         <v>15</v>
@@ -2114,7 +2114,7 @@
         <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
         <v>7</v>
@@ -2266,10 +2266,10 @@
         <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
         <v>13</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
         <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -3010,7 +3010,7 @@
         <v>19</v>
       </c>
       <c r="V21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
         <v>34</v>
@@ -3031,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD21" t="n">
         <v>101</v>
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
         <v>1.13</v>
@@ -3606,10 +3606,10 @@
         <v>1.53</v>
       </c>
       <c r="T26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V26" t="n">
         <v>10</v>
@@ -3633,14 +3633,14 @@
         <v>21</v>
       </c>
       <c r="AC26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
         <v>15</v>
@@ -3942,10 +3942,10 @@
         <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="N29" t="n">
         <v>3.6</v>
@@ -3954,10 +3954,10 @@
         <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
         <v>2.75</v>
@@ -4409,13 +4409,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="J33" t="n">
         <v>1.06</v>
@@ -4424,7 +4424,7 @@
         <v>7.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
         <v>3.25</v>
@@ -4436,67 +4436,67 @@
         <v>1.83</v>
       </c>
       <c r="P33" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="R33" t="n">
         <v>1.7</v>
       </c>
       <c r="S33" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T33" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U33" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V33" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W33" t="n">
+        <v>35</v>
+      </c>
+      <c r="X33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y33" t="n">
         <v>32</v>
-      </c>
-      <c r="X33" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>30</v>
       </c>
       <c r="Z33" t="n">
         <v>7.3</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD33" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE33" t="n">
         <v>8.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH33" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AJ33" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -4653,13 +4653,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H35" t="n">
         <v>5.7</v>
       </c>
       <c r="I35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
@@ -4677,13 +4677,13 @@
         <v>1.28</v>
       </c>
       <c r="O35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="R35" t="n">
         <v>1.53</v>
@@ -4695,13 +4695,13 @@
         <v>35</v>
       </c>
       <c r="U35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W35" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="X35" t="n">
         <v>60</v>
@@ -4713,7 +4713,7 @@
         <v>11</v>
       </c>
       <c r="AA35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB35" t="n">
         <v>17</v>
@@ -4725,7 +4725,7 @@
         <v>200</v>
       </c>
       <c r="AE35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF35" t="n">
         <v>10.25</v>
@@ -5572,10 +5572,10 @@
         <v>3.6</v>
       </c>
       <c r="J44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L44" t="n">
         <v>1.2</v>
@@ -5584,10 +5584,10 @@
         <v>4.33</v>
       </c>
       <c r="N44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O44" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P44" t="n">
         <v>1.3</v>
@@ -5688,7 +5688,7 @@
         <v>1.14</v>
       </c>
       <c r="H45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I45" t="n">
         <v>15</v>
@@ -5718,10 +5718,10 @@
         <v>4.33</v>
       </c>
       <c r="R45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T45" t="n">
         <v>9.5</v>
@@ -5733,22 +5733,22 @@
         <v>11</v>
       </c>
       <c r="W45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X45" t="n">
         <v>11</v>
       </c>
       <c r="Y45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z45" t="n">
         <v>21</v>
       </c>
       <c r="AA45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
         <v>81</v>
@@ -5772,7 +5772,7 @@
         <v>101</v>
       </c>
       <c r="AJ45" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -6521,10 +6521,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I52" t="n">
         <v>2.1</v>
@@ -6538,7 +6538,7 @@
         <v>3.05</v>
       </c>
       <c r="N52" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O52" t="n">
         <v>1.78</v>
@@ -6546,46 +6546,46 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T52" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V52" t="n">
         <v>11</v>
       </c>
       <c r="W52" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X52" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y52" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z52" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC52" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD52" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE52" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF52" t="n">
         <v>10.25</v>
@@ -6594,13 +6594,13 @@
         <v>8.75</v>
       </c>
       <c r="AH52" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI52" t="n">
         <v>17</v>
       </c>
       <c r="AJ52" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -6641,7 +6641,7 @@
         <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -6693,20 +6693,20 @@
       </c>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF53" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AG53" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54">
@@ -7471,94 +7471,94 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="H60" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I60" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="J60" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K60" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L60" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M60" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="N60" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="O60" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P60" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="R60" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S60" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T60" t="n">
         <v>5.8</v>
       </c>
       <c r="U60" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="V60" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W60" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="X60" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y60" t="n">
         <v>32</v>
       </c>
       <c r="Z60" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AA60" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AB60" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AC60" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD60" t="n">
         <v>1000</v>
       </c>
       <c r="AE60" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AF60" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG60" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH60" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI60" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ60" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
@@ -8337,34 +8337,34 @@
         <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L67" t="n">
         <v>1.27</v>
       </c>
       <c r="M67" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N67" t="n">
         <v>1.8</v>
       </c>
       <c r="O67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S67" t="n">
         <v>1.93</v>
       </c>
-      <c r="P67" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T67" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U67" t="n">
         <v>8.5</v>
@@ -8373,28 +8373,28 @@
         <v>8.75</v>
       </c>
       <c r="W67" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X67" t="n">
         <v>14</v>
       </c>
       <c r="Y67" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z67" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA67" t="n">
         <v>7.8</v>
       </c>
       <c r="AB67" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD67" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE67" t="n">
         <v>12.5</v>
@@ -8450,10 +8450,10 @@
         <v>1.65</v>
       </c>
       <c r="H68" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I68" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="J68" t="n">
         <v>1.06</v>
@@ -8468,10 +8468,10 @@
         <v>3.45</v>
       </c>
       <c r="N68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O68" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
@@ -8480,28 +8480,28 @@
         <v>2.82</v>
       </c>
       <c r="R68" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S68" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T68" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U68" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V68" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W68" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X68" t="n">
         <v>14</v>
       </c>
       <c r="Y68" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z68" t="n">
         <v>8</v>
@@ -8510,28 +8510,28 @@
         <v>7.8</v>
       </c>
       <c r="AB68" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC68" t="n">
         <v>90</v>
       </c>
       <c r="AD68" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE68" t="n">
         <v>12.5</v>
       </c>
       <c r="AF68" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG68" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH68" t="n">
         <v>90</v>
       </c>
       <c r="AI68" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ68" t="n">
         <v>55</v>
@@ -8813,19 +8813,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H71" t="n">
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J71" t="n">
         <v>1.08</v>
       </c>
       <c r="K71" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L71" t="n">
         <v>1.36</v>
@@ -8852,10 +8852,10 @@
         <v>1.83</v>
       </c>
       <c r="T71" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V71" t="n">
         <v>11</v>
@@ -8870,7 +8870,7 @@
         <v>34</v>
       </c>
       <c r="Z71" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA71" t="n">
         <v>6</v>
@@ -8894,7 +8894,7 @@
         <v>11</v>
       </c>
       <c r="AH71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI71" t="n">
         <v>23</v>
@@ -9057,94 +9057,94 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I73" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J73" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K73" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="L73" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M73" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="N73" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O73" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P73" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R73" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S73" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T73" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="U73" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V73" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X73" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y73" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z73" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AA73" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB73" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD73" t="n">
         <v>1000</v>
       </c>
       <c r="AE73" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AF73" t="n">
         <v>14</v>
       </c>
       <c r="AG73" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH73" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI73" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ73" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -9179,10 +9179,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H74" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I74" t="n">
         <v>4.35</v>
@@ -9212,7 +9212,7 @@
         <v>2.35</v>
       </c>
       <c r="R74" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S74" t="n">
         <v>1.6</v>
@@ -9245,19 +9245,19 @@
         <v>23</v>
       </c>
       <c r="AC74" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD74" t="n">
         <v>1000</v>
       </c>
       <c r="AE74" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF74" t="n">
         <v>23</v>
       </c>
       <c r="AG74" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH74" t="n">
         <v>80</v>
@@ -10243,13 +10243,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H83" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I83" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J83" t="n">
         <v>1.11</v>
@@ -10258,16 +10258,16 @@
         <v>6.5</v>
       </c>
       <c r="L83" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N83" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O83" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P83" t="n">
         <v>1.62</v>
@@ -10285,16 +10285,16 @@
         <v>5.5</v>
       </c>
       <c r="U83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V83" t="n">
         <v>11</v>
       </c>
       <c r="W83" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y83" t="n">
         <v>41</v>
@@ -10309,7 +10309,7 @@
         <v>23</v>
       </c>
       <c r="AC83" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD83" t="n">
         <v>900</v>
@@ -10321,16 +10321,16 @@
         <v>13</v>
       </c>
       <c r="AG83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI83" t="n">
         <v>34</v>
       </c>
       <c r="AJ83" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
@@ -10605,19 +10605,19 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H86" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I86" t="n">
         <v>5.75</v>
       </c>
       <c r="J86" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K86" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L86" t="n">
         <v>1.4</v>
@@ -10656,7 +10656,7 @@
         <v>12</v>
       </c>
       <c r="X86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y86" t="n">
         <v>34</v>
@@ -10665,7 +10665,7 @@
         <v>7.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB86" t="n">
         <v>21</v>
@@ -11091,7 +11091,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>4.75</v>
@@ -11455,13 +11455,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H93" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I93" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J93" t="n">
         <v>1.04</v>
@@ -11470,10 +11470,10 @@
         <v>12</v>
       </c>
       <c r="L93" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M93" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N93" t="n">
         <v>1.75</v>
@@ -11488,22 +11488,22 @@
         <v>3.25</v>
       </c>
       <c r="R93" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S93" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
       </c>
       <c r="U93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V93" t="n">
         <v>8.5</v>
       </c>
       <c r="W93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X93" t="n">
         <v>12</v>
@@ -11515,7 +11515,7 @@
         <v>12</v>
       </c>
       <c r="AA93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB93" t="n">
         <v>19</v>
@@ -11527,22 +11527,22 @@
         <v>301</v>
       </c>
       <c r="AE93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF93" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH93" t="n">
         <v>67</v>
       </c>
       <c r="AI93" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ93" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94">
@@ -12065,94 +12065,94 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I98" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="J98" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K98" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L98" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="M98" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N98" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="O98" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="P98" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R98" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S98" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="T98" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="U98" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V98" t="n">
         <v>15</v>
       </c>
       <c r="W98" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X98" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y98" t="n">
         <v>41</v>
       </c>
       <c r="Z98" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AA98" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC98" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD98" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF98" t="n">
         <v>8</v>
       </c>
       <c r="AG98" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH98" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI98" t="n">
         <v>15</v>
       </c>
-      <c r="AI98" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ98" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
@@ -12264,10 +12264,10 @@
         <v>7.7</v>
       </c>
       <c r="L100" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M100" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N100" t="n">
         <v>1.83</v>
@@ -12282,10 +12282,10 @@
         <v>2.75</v>
       </c>
       <c r="R100" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S100" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T100" t="n">
         <v>12</v>
@@ -12857,31 +12857,31 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I105" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J105" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K105" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L105" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M105" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N105" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O105" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="P105" t="n">
         <v>1.25</v>
@@ -12896,7 +12896,7 @@
         <v>2.1</v>
       </c>
       <c r="T105" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U105" t="n">
         <v>8.5</v>
@@ -12929,16 +12929,16 @@
         <v>151</v>
       </c>
       <c r="AE105" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF105" t="n">
         <v>34</v>
       </c>
       <c r="AG105" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH105" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI105" t="n">
         <v>41</v>
@@ -14082,10 +14082,10 @@
         <v>13</v>
       </c>
       <c r="L115" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M115" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N115" t="n">
         <v>1.75</v>
@@ -14872,70 +14872,70 @@
         <v>1.75</v>
       </c>
       <c r="H122" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I122" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J122" t="n">
         <v>1.07</v>
       </c>
       <c r="K122" t="n">
+        <v>9</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T122" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U122" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V122" t="n">
         <v>8.5</v>
       </c>
-      <c r="L122" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M122" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N122" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O122" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P122" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R122" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S122" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T122" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="U122" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="V122" t="n">
+      <c r="W122" t="n">
+        <v>13</v>
+      </c>
+      <c r="X122" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z122" t="n">
         <v>9</v>
       </c>
-      <c r="W122" t="n">
-        <v>14</v>
-      </c>
-      <c r="X122" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y122" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z122" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AA122" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AB122" t="n">
         <v>19</v>
       </c>
       <c r="AC122" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AD122" t="n">
         <v>1000</v>
@@ -14944,19 +14944,19 @@
         <v>11</v>
       </c>
       <c r="AF122" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG122" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH122" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI122" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AJ122" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123">
@@ -15126,10 +15126,10 @@
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="U124" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V124" t="n">
         <v>8.25</v>
@@ -15138,10 +15138,10 @@
         <v>24</v>
       </c>
       <c r="X124" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z124" t="n">
         <v>9.75</v>
@@ -15159,10 +15159,10 @@
         <v>250</v>
       </c>
       <c r="AE124" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AF124" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG124" t="n">
         <v>7.9</v>
@@ -15222,10 +15222,10 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O125" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>10</v>
       </c>
       <c r="U125" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V125" t="n">
         <v>11.5</v>
@@ -15256,31 +15256,31 @@
         <v>6</v>
       </c>
       <c r="AB125" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC125" t="n">
         <v>50</v>
       </c>
       <c r="AD125" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE125" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AF125" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG125" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AH125" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI125" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ125" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
@@ -15315,31 +15315,31 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I126" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J126" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K126" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L126" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M126" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N126" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O126" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="P126" t="n">
         <v>1.33</v>
@@ -15348,16 +15348,16 @@
         <v>3.25</v>
       </c>
       <c r="R126" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V126" t="n">
         <v>10</v>
@@ -15366,13 +15366,13 @@
         <v>26</v>
       </c>
       <c r="X126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y126" t="n">
         <v>26</v>
       </c>
       <c r="Z126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA126" t="n">
         <v>6.5</v>
@@ -15387,10 +15387,10 @@
         <v>151</v>
       </c>
       <c r="AE126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG126" t="n">
         <v>10</v>
@@ -15399,7 +15399,7 @@
         <v>26</v>
       </c>
       <c r="AI126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ126" t="n">
         <v>26</v>
@@ -15437,43 +15437,43 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H127" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I127" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>1.03</v>
       </c>
       <c r="K127" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="L127" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="M127" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="N127" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O127" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R127" t="n">
         <v>1.42</v>
       </c>
-      <c r="O127" t="n">
+      <c r="S127" t="n">
         <v>2.65</v>
-      </c>
-      <c r="P127" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R127" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S127" t="n">
-        <v>2.75</v>
       </c>
       <c r="T127" t="n">
         <v>16</v>
@@ -15491,40 +15491,40 @@
         <v>23</v>
       </c>
       <c r="Y127" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z127" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA127" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AB127" t="n">
         <v>11</v>
       </c>
       <c r="AC127" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD127" t="n">
         <v>150</v>
       </c>
       <c r="AE127" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF127" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG127" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH127" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI127" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ127" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="128">
@@ -15571,7 +15571,7 @@
         <v>1.04</v>
       </c>
       <c r="K128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L128" t="n">
         <v>1.25</v>
@@ -17023,13 +17023,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H141" t="n">
         <v>3.2</v>
       </c>
       <c r="I141" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="n">
         <v>1.08</v>
@@ -17065,13 +17065,13 @@
         <v>7</v>
       </c>
       <c r="U141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V141" t="n">
         <v>10</v>
       </c>
       <c r="W141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X141" t="n">
         <v>21</v>
@@ -17145,13 +17145,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H142" t="n">
         <v>3.2</v>
       </c>
       <c r="I142" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J142" t="n">
         <v>1.07</v>
@@ -17187,7 +17187,7 @@
         <v>7</v>
       </c>
       <c r="U142" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V142" t="n">
         <v>9.5</v>
@@ -17196,7 +17196,7 @@
         <v>21</v>
       </c>
       <c r="X142" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y142" t="n">
         <v>34</v>
@@ -17205,7 +17205,7 @@
         <v>8.5</v>
       </c>
       <c r="AA142" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB142" t="n">
         <v>15</v>
@@ -17217,19 +17217,19 @@
         <v>301</v>
       </c>
       <c r="AE142" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF142" t="n">
         <v>15</v>
       </c>
       <c r="AG142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH142" t="n">
         <v>34</v>
       </c>
       <c r="AI142" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ142" t="n">
         <v>41</v>
@@ -17410,10 +17410,10 @@
         <v>2.75</v>
       </c>
       <c r="N144" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O144" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P144" t="n">
         <v>1.5</v>
@@ -17642,10 +17642,10 @@
         <v>3.6</v>
       </c>
       <c r="J146" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K146" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L146" t="n">
         <v>1.36</v>
@@ -17654,10 +17654,10 @@
         <v>3</v>
       </c>
       <c r="N146" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O146" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P146" t="n">
         <v>1.44</v>
@@ -17968,7 +17968,7 @@
         <v>1.22</v>
       </c>
       <c r="H149" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I149" t="n">
         <v>10.5</v>
@@ -18177,13 +18177,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H151" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J151" t="n">
         <v>1.06</v>
@@ -18231,10 +18231,10 @@
         <v>19</v>
       </c>
       <c r="Y151" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z151" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA151" t="n">
         <v>6.5</v>
@@ -18249,7 +18249,7 @@
         <v>201</v>
       </c>
       <c r="AE151" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF151" t="n">
         <v>15</v>
@@ -18552,10 +18552,10 @@
         <v>3.3</v>
       </c>
       <c r="J154" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L154" t="n">
         <v>1.2</v>
@@ -18564,10 +18564,10 @@
         <v>4.33</v>
       </c>
       <c r="N154" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O154" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P154" t="n">
         <v>1.33</v>
@@ -18924,16 +18924,16 @@
         <v>15</v>
       </c>
       <c r="L157" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M157" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N157" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O157" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P157" t="n">
         <v>1.29</v>
@@ -20672,7 +20672,7 @@
         <v>67</v>
       </c>
       <c r="AD171" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE171" t="n">
         <v>6.5</v>
@@ -20725,7 +20725,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H172" t="n">
         <v>3.8</v>
@@ -20794,7 +20794,7 @@
         <v>41</v>
       </c>
       <c r="AD172" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE172" t="n">
         <v>19</v>
@@ -21372,22 +21372,22 @@
         <v>2.12</v>
       </c>
       <c r="T177" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="U177" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V177" t="n">
         <v>9</v>
       </c>
       <c r="W177" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X177" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y177" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z177" t="n">
         <v>7.2</v>
@@ -21405,22 +21405,22 @@
         <v>350</v>
       </c>
       <c r="AE177" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AF177" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG177" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH177" t="n">
         <v>37</v>
       </c>
       <c r="AI177" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ177" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
@@ -21827,7 +21827,7 @@
         <v>5.7</v>
       </c>
       <c r="I181" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="J181" t="n">
         <v>1.02</v>
@@ -21839,73 +21839,73 @@
         <v>1.07</v>
       </c>
       <c r="M181" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="N181" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="O181" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="P181" t="n">
         <v>1.16</v>
       </c>
       <c r="Q181" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="R181" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="S181" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="T181" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U181" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="V181" t="n">
         <v>9.75</v>
       </c>
       <c r="W181" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X181" t="n">
         <v>9.75</v>
       </c>
       <c r="Y181" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z181" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA181" t="n">
         <v>14</v>
       </c>
       <c r="AB181" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC181" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD181" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AE181" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF181" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG181" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH181" t="n">
         <v>200</v>
       </c>
       <c r="AI181" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ181" t="n">
         <v>45</v>
@@ -21949,7 +21949,7 @@
         <v>5.4</v>
       </c>
       <c r="I182" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="J182" t="n">
         <v>1.02</v>
@@ -21958,58 +21958,58 @@
         <v>9.75</v>
       </c>
       <c r="L182" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="M182" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="N182" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="O182" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="P182" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="Q182" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="R182" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S182" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T182" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="U182" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V182" t="n">
         <v>9</v>
       </c>
       <c r="W182" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X182" t="n">
         <v>9.75</v>
       </c>
       <c r="Y182" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z182" t="n">
         <v>10.5</v>
       </c>
       <c r="AA182" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB182" t="n">
         <v>17</v>
       </c>
       <c r="AC182" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD182" t="n">
         <v>250</v>
@@ -22024,13 +22024,13 @@
         <v>30</v>
       </c>
       <c r="AH182" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AI182" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ182" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183">
@@ -22068,10 +22068,10 @@
         <v>3.9</v>
       </c>
       <c r="H183" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I183" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J183" t="n">
         <v>1.04</v>
@@ -22080,34 +22080,34 @@
         <v>8.75</v>
       </c>
       <c r="L183" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M183" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="N183" t="n">
         <v>1.57</v>
       </c>
       <c r="O183" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="P183" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q183" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R183" t="n">
         <v>1.53</v>
       </c>
       <c r="S183" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T183" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U183" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V183" t="n">
         <v>13</v>
@@ -22116,10 +22116,10 @@
         <v>60</v>
       </c>
       <c r="X183" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y183" t="n">
         <v>30</v>
-      </c>
-      <c r="Y183" t="n">
-        <v>28</v>
       </c>
       <c r="Z183" t="n">
         <v>8.75</v>
@@ -22137,22 +22137,22 @@
         <v>250</v>
       </c>
       <c r="AE183" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF183" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG183" t="n">
         <v>8.25</v>
       </c>
       <c r="AH183" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI183" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ183" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184">
@@ -22187,19 +22187,19 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H184" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I184" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J184" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K184" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L184" t="n">
         <v>1.44</v>
@@ -22220,25 +22220,25 @@
         <v>2.38</v>
       </c>
       <c r="R184" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S184" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T184" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U184" t="n">
+        <v>8</v>
+      </c>
+      <c r="V184" t="n">
         <v>9</v>
       </c>
-      <c r="V184" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W184" t="n">
+        <v>17</v>
+      </c>
+      <c r="X184" t="n">
         <v>19</v>
-      </c>
-      <c r="X184" t="n">
-        <v>21</v>
       </c>
       <c r="Y184" t="n">
         <v>34</v>
@@ -22247,7 +22247,7 @@
         <v>7</v>
       </c>
       <c r="AA184" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB184" t="n">
         <v>19</v>
@@ -22259,22 +22259,22 @@
         <v>501</v>
       </c>
       <c r="AE184" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF184" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG184" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH184" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI184" t="n">
         <v>41</v>
       </c>
-      <c r="AI184" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ184" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185">
@@ -22321,19 +22321,19 @@
         <v>1.07</v>
       </c>
       <c r="K185" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L185" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M185" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N185" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O185" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P185" t="n">
         <v>1.44</v>
@@ -22431,13 +22431,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H186" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I186" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J186" t="n">
         <v>1.06</v>
@@ -22452,10 +22452,10 @@
         <v>3.25</v>
       </c>
       <c r="N186" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O186" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P186" t="n">
         <v>1.4</v>
@@ -22464,10 +22464,10 @@
         <v>2.75</v>
       </c>
       <c r="R186" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S186" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T186" t="n">
         <v>6.5</v>
@@ -22479,7 +22479,7 @@
         <v>8.5</v>
       </c>
       <c r="W186" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X186" t="n">
         <v>15</v>
@@ -22491,19 +22491,19 @@
         <v>9.5</v>
       </c>
       <c r="AA186" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB186" t="n">
         <v>19</v>
       </c>
       <c r="AC186" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD186" t="n">
         <v>351</v>
       </c>
       <c r="AE186" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF186" t="n">
         <v>23</v>
@@ -22553,19 +22553,19 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H187" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I187" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J187" t="n">
         <v>1.06</v>
       </c>
       <c r="K187" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L187" t="n">
         <v>1.33</v>
@@ -22592,7 +22592,7 @@
         <v>1.73</v>
       </c>
       <c r="T187" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U187" t="n">
         <v>7.5</v>
@@ -22625,7 +22625,7 @@
         <v>1250</v>
       </c>
       <c r="AE187" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF187" t="n">
         <v>21</v>
@@ -22675,19 +22675,19 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="H188" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I188" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="J188" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K188" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L188" t="n">
         <v>1.29</v>
@@ -22708,19 +22708,19 @@
         <v>3</v>
       </c>
       <c r="R188" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S188" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T188" t="n">
         <v>13</v>
       </c>
       <c r="U188" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V188" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W188" t="n">
         <v>51</v>
@@ -22747,16 +22747,16 @@
         <v>251</v>
       </c>
       <c r="AE188" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF188" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG188" t="n">
         <v>8.5</v>
       </c>
       <c r="AH188" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI188" t="n">
         <v>15</v>
@@ -22866,7 +22866,7 @@
         <v>51</v>
       </c>
       <c r="AD189" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE189" t="n">
         <v>8.5</v>
@@ -22919,13 +22919,13 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I190" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J190" t="n">
         <v>1.08</v>
@@ -22958,16 +22958,16 @@
         <v>1.83</v>
       </c>
       <c r="T190" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U190" t="n">
         <v>11</v>
       </c>
       <c r="V190" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W190" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X190" t="n">
         <v>21</v>
@@ -22976,10 +22976,10 @@
         <v>34</v>
       </c>
       <c r="Z190" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA190" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB190" t="n">
         <v>15</v>
@@ -23041,13 +23041,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H191" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I191" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J191" t="n">
         <v>1.04</v>
@@ -23062,10 +23062,10 @@
         <v>3.75</v>
       </c>
       <c r="N191" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O191" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P191" t="n">
         <v>1.33</v>
@@ -23074,59 +23074,59 @@
         <v>3.25</v>
       </c>
       <c r="R191" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S191" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T191" t="n">
         <v>6</v>
       </c>
       <c r="U191" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V191" t="n">
+        <v>9</v>
+      </c>
+      <c r="W191" t="n">
+        <v>8</v>
+      </c>
+      <c r="X191" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA191" t="n">
         <v>9.5</v>
       </c>
-      <c r="W191" t="n">
-        <v>7</v>
-      </c>
-      <c r="X191" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y191" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z191" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA191" t="n">
-        <v>10</v>
-      </c>
       <c r="AB191" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC191" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD191" t="inlineStr"/>
       <c r="AE191" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF191" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG191" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH191" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AI191" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ191" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192">
@@ -23161,13 +23161,13 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H192" t="n">
         <v>3.6</v>
       </c>
       <c r="I192" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J192" t="n">
         <v>1.03</v>
@@ -23236,13 +23236,13 @@
         <v>11</v>
       </c>
       <c r="AF192" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG192" t="n">
         <v>10</v>
       </c>
       <c r="AH192" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI192" t="n">
         <v>19</v>
@@ -23292,10 +23292,10 @@
         <v>13</v>
       </c>
       <c r="J193" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K193" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L193" t="n">
         <v>1.18</v>
@@ -23304,10 +23304,10 @@
         <v>4.5</v>
       </c>
       <c r="N193" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O193" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P193" t="n">
         <v>1.29</v>
@@ -23403,13 +23403,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H194" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I194" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I194" t="n">
-        <v>5</v>
       </c>
       <c r="J194" t="n">
         <v>1.02</v>
@@ -23436,16 +23436,16 @@
         <v>3.75</v>
       </c>
       <c r="R194" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S194" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T194" t="n">
+        <v>11</v>
+      </c>
+      <c r="U194" t="n">
         <v>10</v>
-      </c>
-      <c r="U194" t="n">
-        <v>9.5</v>
       </c>
       <c r="V194" t="n">
         <v>8.5</v>
@@ -23454,7 +23454,7 @@
         <v>13</v>
       </c>
       <c r="X194" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y194" t="n">
         <v>19</v>
@@ -23463,7 +23463,7 @@
         <v>19</v>
       </c>
       <c r="AA194" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB194" t="n">
         <v>13</v>
@@ -23481,7 +23481,7 @@
         <v>29</v>
       </c>
       <c r="AG194" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH194" t="n">
         <v>51</v>
@@ -23490,7 +23490,7 @@
         <v>34</v>
       </c>
       <c r="AJ194" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195">
@@ -23525,13 +23525,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I195" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J195" t="n">
         <v>1.06</v>
@@ -23540,16 +23540,16 @@
         <v>10</v>
       </c>
       <c r="L195" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M195" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N195" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O195" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="P195" t="n">
         <v>1.4</v>
@@ -23564,7 +23564,7 @@
         <v>2</v>
       </c>
       <c r="T195" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U195" t="n">
         <v>11</v>
@@ -23582,13 +23582,13 @@
         <v>29</v>
       </c>
       <c r="Z195" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA195" t="n">
         <v>6</v>
       </c>
       <c r="AB195" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC195" t="n">
         <v>41</v>
@@ -23647,13 +23647,13 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H196" t="n">
         <v>3.1</v>
       </c>
       <c r="I196" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="J196" t="n">
         <v>1.1</v>
@@ -23668,10 +23668,10 @@
         <v>2.63</v>
       </c>
       <c r="N196" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O196" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P196" t="n">
         <v>1.53</v>
@@ -23689,7 +23689,7 @@
         <v>10</v>
       </c>
       <c r="U196" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V196" t="n">
         <v>17</v>
@@ -23707,20 +23707,20 @@
         <v>6.5</v>
       </c>
       <c r="AA196" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB196" t="n">
         <v>19</v>
       </c>
       <c r="AC196" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD196" t="inlineStr"/>
       <c r="AE196" t="n">
         <v>5.5</v>
       </c>
       <c r="AF196" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG196" t="n">
         <v>9.5</v>
@@ -23767,31 +23767,31 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H197" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I197" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="J197" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K197" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L197" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M197" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N197" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O197" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P197" t="n">
         <v>1.33</v>
@@ -23800,61 +23800,61 @@
         <v>3.25</v>
       </c>
       <c r="R197" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S197" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T197" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U197" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="V197" t="n">
         <v>8.5</v>
       </c>
       <c r="W197" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X197" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y197" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z197" t="n">
         <v>13</v>
       </c>
       <c r="AA197" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB197" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC197" t="n">
         <v>51</v>
       </c>
       <c r="AD197" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE197" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF197" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI197" t="n">
         <v>29</v>
       </c>
-      <c r="AG197" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH197" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI197" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ197" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198">
@@ -23889,43 +23889,43 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H198" t="n">
         <v>3.5</v>
       </c>
       <c r="I198" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J198" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K198" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L198" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M198" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N198" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O198" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P198" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q198" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R198" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S198" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T198" t="n">
         <v>12</v>
@@ -23937,16 +23937,16 @@
         <v>12</v>
       </c>
       <c r="W198" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X198" t="n">
         <v>26</v>
       </c>
       <c r="Y198" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z198" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA198" t="n">
         <v>6.5</v>
@@ -23958,13 +23958,13 @@
         <v>41</v>
       </c>
       <c r="AD198" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE198" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF198" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG198" t="n">
         <v>9</v>
@@ -24014,61 +24014,61 @@
         <v>4.5</v>
       </c>
       <c r="H199" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I199" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J199" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K199" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L199" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M199" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N199" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O199" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="P199" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q199" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R199" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S199" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T199" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U199" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V199" t="n">
         <v>15</v>
       </c>
       <c r="W199" t="n">
+        <v>51</v>
+      </c>
+      <c r="X199" t="n">
         <v>41</v>
-      </c>
-      <c r="X199" t="n">
-        <v>34</v>
       </c>
       <c r="Y199" t="n">
         <v>41</v>
       </c>
       <c r="Z199" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA199" t="n">
         <v>6.5</v>
@@ -24080,10 +24080,10 @@
         <v>51</v>
       </c>
       <c r="AD199" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE199" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF199" t="n">
         <v>8.5</v>
@@ -24098,7 +24098,7 @@
         <v>15</v>
       </c>
       <c r="AJ199" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200">
@@ -24154,10 +24154,10 @@
         <v>3.4</v>
       </c>
       <c r="N200" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O200" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P200" t="n">
         <v>1.4</v>
@@ -24758,16 +24758,16 @@
         <v>11</v>
       </c>
       <c r="L205" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M205" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N205" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O205" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P205" t="n">
         <v>1.36</v>
@@ -24886,10 +24886,10 @@
         <v>3.5</v>
       </c>
       <c r="N206" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O206" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P206" t="n">
         <v>1.36</v>
@@ -24987,13 +24987,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H207" t="n">
         <v>3.6</v>
       </c>
       <c r="I207" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J207" t="n">
         <v>1.03</v>
@@ -25035,7 +25035,7 @@
         <v>9</v>
       </c>
       <c r="W207" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X207" t="n">
         <v>15</v>
@@ -25065,7 +25065,7 @@
         <v>19</v>
       </c>
       <c r="AG207" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH207" t="n">
         <v>34</v>
@@ -25646,36 +25646,96 @@
           <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr"/>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="inlineStr"/>
-      <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr"/>
-      <c r="V214" t="inlineStr"/>
-      <c r="W214" t="inlineStr"/>
-      <c r="X214" t="inlineStr"/>
-      <c r="Y214" t="inlineStr"/>
-      <c r="Z214" t="inlineStr"/>
-      <c r="AA214" t="inlineStr"/>
-      <c r="AB214" t="inlineStr"/>
-      <c r="AC214" t="inlineStr"/>
-      <c r="AD214" t="inlineStr"/>
-      <c r="AE214" t="inlineStr"/>
-      <c r="AF214" t="inlineStr"/>
-      <c r="AG214" t="inlineStr"/>
-      <c r="AH214" t="inlineStr"/>
-      <c r="AI214" t="inlineStr"/>
-      <c r="AJ214" t="inlineStr"/>
+      <c r="G214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H214" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K214" t="n">
+        <v>9</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M214" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O214" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="P214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R214" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S214" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T214" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U214" t="n">
+        <v>21</v>
+      </c>
+      <c r="V214" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="W214" t="n">
+        <v>45</v>
+      </c>
+      <c r="X214" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -25829,19 +25889,19 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H216" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I216" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J216" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K216" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L216" t="n">
         <v>1.36</v>
@@ -25874,10 +25934,10 @@
         <v>7</v>
       </c>
       <c r="V216" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W216" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X216" t="n">
         <v>15</v>
@@ -25907,10 +25967,10 @@
         <v>26</v>
       </c>
       <c r="AG216" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH216" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI216" t="n">
         <v>41</v>
@@ -26451,7 +26511,7 @@
         <v>2.05</v>
       </c>
       <c r="S221" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T221" t="n">
         <v>6.3</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-25.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -814,7 +814,7 @@
         <v>34</v>
       </c>
       <c r="V3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W3" t="n">
         <v>51</v>
@@ -1025,7 +1025,7 @@
         <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L5" t="n">
         <v>1.08</v>
@@ -1094,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1147,19 +1147,19 @@
         <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P6" t="n">
         <v>1.29</v>
@@ -1388,10 +1388,10 @@
         <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="U8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V8" t="n">
         <v>12</v>
@@ -2254,10 +2254,10 @@
         <v>3.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P15" t="n">
         <v>1.36</v>
@@ -2721,19 +2721,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
         <v>1.2</v>
@@ -2754,10 +2754,10 @@
         <v>3.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -2766,16 +2766,16 @@
         <v>21</v>
       </c>
       <c r="V19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
         <v>26</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>29</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -2793,7 +2793,7 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>12</v>
@@ -2802,7 +2802,7 @@
         <v>9</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
@@ -2852,10 +2852,10 @@
         <v>5.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L20" t="n">
         <v>1.17</v>
@@ -2864,10 +2864,10 @@
         <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P20" t="n">
         <v>1.25</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" t="n">
         <v>1.14</v>
@@ -3007,10 +3007,10 @@
         <v>15</v>
       </c>
       <c r="U21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
         <v>34</v>
@@ -3034,7 +3034,7 @@
         <v>29</v>
       </c>
       <c r="AD21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="n">
         <v>12</v>
@@ -3043,7 +3043,7 @@
         <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.13</v>
@@ -3858,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
         <v>41</v>
@@ -4534,10 +4534,10 @@
         <v>1.4</v>
       </c>
       <c r="H34" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4549,31 +4549,31 @@
         <v>1.21</v>
       </c>
       <c r="M34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="P34" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S34" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T34" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U34" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="V34" t="n">
         <v>8.25</v>
@@ -4582,7 +4582,7 @@
         <v>9.25</v>
       </c>
       <c r="X34" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
         <v>25</v>
@@ -4606,7 +4606,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG34" t="n">
         <v>21</v>
@@ -4615,7 +4615,7 @@
         <v>150</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ34" t="n">
         <v>60</v>
@@ -4656,7 +4656,7 @@
         <v>7.5</v>
       </c>
       <c r="H35" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I35" t="n">
         <v>1.29</v>
@@ -4671,34 +4671,34 @@
         <v>1.08</v>
       </c>
       <c r="M35" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="N35" t="n">
         <v>1.28</v>
       </c>
       <c r="O35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="P35" t="n">
         <v>1.17</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="R35" t="n">
         <v>1.55</v>
       </c>
       <c r="S35" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T35" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U35" t="n">
         <v>65</v>
       </c>
       <c r="V35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W35" t="n">
         <v>175</v>
@@ -4722,13 +4722,13 @@
         <v>50</v>
       </c>
       <c r="AD35" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE35" t="n">
         <v>14</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG35" t="n">
         <v>9.5</v>
@@ -4900,7 +4900,7 @@
         <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
         <v>1.52</v>
@@ -4921,25 +4921,25 @@
         <v>1.4</v>
       </c>
       <c r="O37" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="P37" t="n">
         <v>1.21</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U37" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V37" t="n">
         <v>16.5</v>
@@ -4951,7 +4951,7 @@
         <v>40</v>
       </c>
       <c r="Y37" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z37" t="n">
         <v>10</v>
@@ -4960,10 +4960,10 @@
         <v>9.75</v>
       </c>
       <c r="AB37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD37" t="n">
         <v>200</v>
@@ -4972,7 +4972,7 @@
         <v>11.25</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG37" t="n">
         <v>8.5</v>
@@ -5019,27 +5019,27 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H38" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I38" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M38" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O38" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P38" t="n">
         <v>1.39</v>
@@ -5057,28 +5057,28 @@
         <v>6.2</v>
       </c>
       <c r="U38" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="V38" t="n">
         <v>8.25</v>
       </c>
       <c r="W38" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="X38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA38" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB38" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
         <v>100</v>
@@ -5087,22 +5087,22 @@
         <v>900</v>
       </c>
       <c r="AE38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF38" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG38" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI38" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ38" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -5137,21 +5137,21 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H39" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N39" t="n">
         <v>2.25</v>
@@ -5166,40 +5166,40 @@
         <v>2.22</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T39" t="n">
         <v>8.25</v>
       </c>
       <c r="U39" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X39" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z39" t="n">
         <v>7.1</v>
       </c>
       <c r="AA39" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD39" t="n">
         <v>900</v>
@@ -5208,19 +5208,19 @@
         <v>5.9</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH39" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -5578,16 +5578,16 @@
         <v>15</v>
       </c>
       <c r="L44" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O44" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P44" t="n">
         <v>1.3</v>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H46" t="n">
         <v>6.25</v>
@@ -5819,7 +5819,7 @@
         <v>1.02</v>
       </c>
       <c r="K46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L46" t="n">
         <v>1.11</v>
@@ -5846,10 +5846,10 @@
         <v>1.8</v>
       </c>
       <c r="T46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V46" t="n">
         <v>10</v>
@@ -5864,10 +5864,10 @@
         <v>26</v>
       </c>
       <c r="Z46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB46" t="n">
         <v>23</v>
@@ -5882,7 +5882,7 @@
         <v>34</v>
       </c>
       <c r="AF46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="n">
         <v>34</v>
@@ -5941,7 +5941,7 @@
         <v>1.04</v>
       </c>
       <c r="K47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L47" t="n">
         <v>1.2</v>
@@ -6051,19 +6051,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J48" t="n">
         <v>1.03</v>
       </c>
       <c r="K48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L48" t="n">
         <v>1.17</v>
@@ -6072,16 +6072,16 @@
         <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O48" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P48" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R48" t="n">
         <v>1.5</v>
@@ -6099,19 +6099,19 @@
         <v>9</v>
       </c>
       <c r="W48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X48" t="n">
         <v>15</v>
       </c>
       <c r="Y48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB48" t="n">
         <v>11</v>
@@ -6129,10 +6129,10 @@
         <v>21</v>
       </c>
       <c r="AG48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI48" t="n">
         <v>23</v>
@@ -6635,78 +6635,78 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="I53" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="O53" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="S53" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="T53" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="U53" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="V53" t="n">
+        <v>13</v>
+      </c>
+      <c r="W53" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z53" t="n">
         <v>14.5</v>
       </c>
-      <c r="W53" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X53" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AA53" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC53" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF53" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AG53" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AJ53" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54">
@@ -6983,13 +6983,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H56" t="n">
         <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
         <v>1.08</v>
@@ -7064,7 +7064,7 @@
         <v>11</v>
       </c>
       <c r="AH56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI56" t="n">
         <v>26</v>
@@ -8102,10 +8102,10 @@
         <v>4</v>
       </c>
       <c r="N65" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O65" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P65" t="n">
         <v>1.33</v>
@@ -8218,16 +8218,16 @@
         <v>15</v>
       </c>
       <c r="L66" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N66" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O66" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P66" t="n">
         <v>1.33</v>
@@ -8447,37 +8447,37 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H68" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I68" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="J68" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L68" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M68" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N68" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O68" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="P68" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="R68" t="n">
         <v>1.78</v>
@@ -8486,31 +8486,31 @@
         <v>1.93</v>
       </c>
       <c r="T68" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U68" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V68" t="n">
         <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X68" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y68" t="n">
         <v>27</v>
       </c>
       <c r="Z68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA68" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC68" t="n">
         <v>80</v>
@@ -8519,13 +8519,13 @@
         <v>600</v>
       </c>
       <c r="AE68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF68" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG68" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH68" t="n">
         <v>90</v>
@@ -8534,7 +8534,7 @@
         <v>50</v>
       </c>
       <c r="AJ68" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
@@ -8578,10 +8578,10 @@
         <v>3.2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L69" t="n">
         <v>1.29</v>
@@ -8590,10 +8590,10 @@
         <v>3.5</v>
       </c>
       <c r="N69" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O69" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P69" t="n">
         <v>1.36</v>
@@ -9656,52 +9656,52 @@
         <v>1.16</v>
       </c>
       <c r="H78" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I78" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O78" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="S78" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T78" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="U78" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="V78" t="n">
         <v>10.5</v>
       </c>
       <c r="W78" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X78" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y78" t="n">
         <v>45</v>
       </c>
       <c r="Z78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA78" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>14</v>
       </c>
       <c r="AB78" t="n">
         <v>40</v>
@@ -9711,19 +9711,19 @@
       </c>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF78" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG78" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH78" t="n">
         <v>900</v>
       </c>
       <c r="AI78" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ78" t="n">
         <v>250</v>
@@ -9879,37 +9879,37 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="H80" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J80" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L80" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M80" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N80" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O80" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P80" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R80" t="n">
         <v>2.1</v>
@@ -9921,28 +9921,28 @@
         <v>6</v>
       </c>
       <c r="U80" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="V80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W80" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X80" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y80" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z80" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA80" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC80" t="n">
         <v>67</v>
@@ -9951,22 +9951,22 @@
         <v>1250</v>
       </c>
       <c r="AE80" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG80" t="n">
         <v>15</v>
       </c>
-      <c r="AG80" t="n">
-        <v>13</v>
-      </c>
       <c r="AH80" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI80" t="n">
         <v>41</v>
       </c>
-      <c r="AI80" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ80" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81">
@@ -10010,10 +10010,10 @@
         <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K81" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L81" t="n">
         <v>1.57</v>
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H83" t="n">
         <v>3.25</v>
       </c>
       <c r="I83" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J83" t="n">
         <v>1.11</v>
@@ -10616,10 +10616,10 @@
         <v>5.75</v>
       </c>
       <c r="J86" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L86" t="n">
         <v>1.4</v>
@@ -10849,31 +10849,31 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H88" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I88" t="n">
         <v>10</v>
       </c>
       <c r="J88" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L88" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M88" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N88" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O88" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P88" t="n">
         <v>1.29</v>
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="AA88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB88" t="n">
         <v>26</v>
@@ -10921,7 +10921,7 @@
         <v>1250</v>
       </c>
       <c r="AE88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF88" t="n">
         <v>51</v>
@@ -10930,10 +10930,10 @@
         <v>29</v>
       </c>
       <c r="AH88" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI88" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ88" t="n">
         <v>67</v>
@@ -11114,10 +11114,10 @@
         <v>4</v>
       </c>
       <c r="N90" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O90" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P90" t="n">
         <v>1.33</v>
@@ -11469,13 +11469,13 @@
         <v>1.04</v>
       </c>
       <c r="K93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L93" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M93" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N93" t="n">
         <v>1.75</v>
@@ -11823,13 +11823,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="H96" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J96" t="n">
         <v>1.03</v>
@@ -11838,43 +11838,43 @@
         <v>15</v>
       </c>
       <c r="L96" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M96" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N96" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O96" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P96" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R96" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S96" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T96" t="n">
         <v>8.5</v>
       </c>
       <c r="U96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V96" t="n">
         <v>8.5</v>
       </c>
       <c r="W96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y96" t="n">
         <v>21</v>
@@ -11883,7 +11883,7 @@
         <v>15</v>
       </c>
       <c r="AA96" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB96" t="n">
         <v>15</v>
@@ -11895,22 +11895,22 @@
         <v>151</v>
       </c>
       <c r="AE96" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF96" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG96" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH96" t="n">
         <v>51</v>
       </c>
       <c r="AI96" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ96" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97">
@@ -12338,7 +12338,7 @@
         <v>1.98</v>
       </c>
       <c r="P100" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q100" t="n">
         <v>2.75</v>
@@ -12797,13 +12797,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H104" t="n">
         <v>3.75</v>
       </c>
       <c r="I104" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
         <v>1.03</v>
@@ -12830,10 +12830,10 @@
         <v>3.4</v>
       </c>
       <c r="R104" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S104" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T104" t="n">
         <v>13</v>
@@ -12845,7 +12845,7 @@
         <v>12</v>
       </c>
       <c r="W104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X104" t="n">
         <v>23</v>
@@ -12857,7 +12857,7 @@
         <v>15</v>
       </c>
       <c r="AA104" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB104" t="n">
         <v>13</v>
@@ -12946,10 +12946,10 @@
         <v>2.35</v>
       </c>
       <c r="P105" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q105" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R105" t="n">
         <v>1.67</v>
@@ -13056,10 +13056,10 @@
         <v>17</v>
       </c>
       <c r="L106" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M106" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N106" t="n">
         <v>1.53</v>
@@ -13285,19 +13285,19 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H108" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I108" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J108" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L108" t="n">
         <v>1.4</v>
@@ -13318,22 +13318,22 @@
         <v>2.63</v>
       </c>
       <c r="R108" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S108" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T108" t="n">
         <v>5.5</v>
       </c>
       <c r="U108" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V108" t="n">
         <v>9</v>
       </c>
       <c r="W108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X108" t="n">
         <v>15</v>
@@ -13351,17 +13351,17 @@
         <v>21</v>
       </c>
       <c r="AC108" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD108" t="inlineStr"/>
       <c r="AE108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF108" t="n">
         <v>29</v>
       </c>
       <c r="AG108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH108" t="n">
         <v>67</v>
@@ -13647,31 +13647,31 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H111" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I111" t="n">
         <v>3.1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K111" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="L111" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="M111" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N111" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O111" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P111" t="n">
         <v>1.75</v>
@@ -13680,59 +13680,59 @@
         <v>1.98</v>
       </c>
       <c r="R111" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="S111" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T111" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="U111" t="n">
         <v>11.25</v>
       </c>
       <c r="V111" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W111" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X111" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y111" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z111" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AA111" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB111" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC111" t="n">
         <v>200</v>
       </c>
       <c r="AD111" t="inlineStr"/>
       <c r="AE111" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AF111" t="n">
         <v>13.5</v>
       </c>
       <c r="AG111" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH111" t="n">
         <v>45</v>
       </c>
       <c r="AI111" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ111" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112">
@@ -14129,31 +14129,31 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H115" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I115" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J115" t="n">
         <v>1.04</v>
       </c>
       <c r="K115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L115" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M115" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N115" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O115" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P115" t="n">
         <v>1.33</v>
@@ -14186,7 +14186,7 @@
         <v>23</v>
       </c>
       <c r="Z115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA115" t="n">
         <v>7.5</v>
@@ -14201,10 +14201,10 @@
         <v>201</v>
       </c>
       <c r="AE115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF115" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG115" t="n">
         <v>15</v>
@@ -14213,7 +14213,7 @@
         <v>51</v>
       </c>
       <c r="AI115" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ115" t="n">
         <v>41</v>
@@ -14597,27 +14597,27 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H119" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I119" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M119" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N119" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O119" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
@@ -14631,16 +14631,16 @@
         <v>7.9</v>
       </c>
       <c r="U119" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V119" t="n">
         <v>8.25</v>
       </c>
       <c r="W119" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="X119" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y119" t="n">
         <v>24</v>
@@ -14649,7 +14649,7 @@
         <v>11.5</v>
       </c>
       <c r="AA119" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB119" t="n">
         <v>14</v>
@@ -14658,25 +14658,25 @@
         <v>60</v>
       </c>
       <c r="AD119" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE119" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF119" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG119" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH119" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI119" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ119" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120">
@@ -14714,76 +14714,76 @@
         <v>2.02</v>
       </c>
       <c r="H120" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I120" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O120" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S120" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="T120" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="U120" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="V120" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W120" t="n">
+        <v>23</v>
+      </c>
+      <c r="X120" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA120" t="n">
         <v>9.25</v>
       </c>
-      <c r="W120" t="n">
-        <v>21</v>
-      </c>
-      <c r="X120" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y120" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>9</v>
-      </c>
       <c r="AB120" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC120" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD120" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE120" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF120" t="n">
         <v>22</v>
       </c>
       <c r="AG120" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH120" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI120" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ120" t="n">
         <v>20</v>
@@ -15503,13 +15503,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H127" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="J127" t="n">
         <v>1.03</v>
@@ -15518,22 +15518,22 @@
         <v>9.5</v>
       </c>
       <c r="L127" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M127" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="N127" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="O127" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="P127" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Q127" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="R127" t="n">
         <v>1.42</v>
@@ -15542,19 +15542,19 @@
         <v>2.65</v>
       </c>
       <c r="T127" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U127" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V127" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W127" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X127" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y127" t="n">
         <v>23</v>
@@ -15563,10 +15563,10 @@
         <v>9.5</v>
       </c>
       <c r="AA127" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AB127" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC127" t="n">
         <v>32</v>
@@ -15575,7 +15575,7 @@
         <v>150</v>
       </c>
       <c r="AE127" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF127" t="n">
         <v>13</v>
@@ -15584,13 +15584,13 @@
         <v>8.75</v>
       </c>
       <c r="AH127" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI127" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ127" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128">
@@ -15869,13 +15869,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="H130" t="n">
         <v>2.95</v>
       </c>
       <c r="I130" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="J130" t="n">
         <v>1.09</v>
@@ -15884,7 +15884,7 @@
         <v>6.2</v>
       </c>
       <c r="L130" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M130" t="n">
         <v>2.8</v>
@@ -15896,31 +15896,31 @@
         <v>1.65</v>
       </c>
       <c r="P130" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R130" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S130" t="n">
         <v>1.9</v>
       </c>
       <c r="T130" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U130" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V130" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W130" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X130" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y130" t="n">
         <v>32</v>
@@ -15941,19 +15941,19 @@
         <v>600</v>
       </c>
       <c r="AE130" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF130" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG130" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH130" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI130" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ130" t="n">
         <v>37</v>
@@ -15994,16 +15994,16 @@
         <v>2.25</v>
       </c>
       <c r="H131" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J131" t="n">
         <v>1.11</v>
       </c>
       <c r="K131" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L131" t="n">
         <v>1.5</v>
@@ -16012,52 +16012,52 @@
         <v>2.42</v>
       </c>
       <c r="N131" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O131" t="n">
         <v>1.5</v>
       </c>
       <c r="P131" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R131" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S131" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T131" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U131" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V131" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W131" t="n">
         <v>22</v>
       </c>
       <c r="X131" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y131" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z131" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA131" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB131" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC131" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD131" t="n">
         <v>900</v>
@@ -16066,19 +16066,19 @@
         <v>7.7</v>
       </c>
       <c r="AF131" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG131" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH131" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ131" t="n">
         <v>50</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ131" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="132">
@@ -16113,13 +16113,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H132" t="n">
         <v>3</v>
       </c>
       <c r="I132" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J132" t="n">
         <v>1.13</v>
@@ -16140,28 +16140,28 @@
         <v>1.36</v>
       </c>
       <c r="P132" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R132" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S132" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T132" t="n">
         <v>7.5</v>
       </c>
       <c r="U132" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V132" t="n">
         <v>15</v>
       </c>
       <c r="W132" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X132" t="n">
         <v>41</v>
@@ -16176,23 +16176,23 @@
         <v>6</v>
       </c>
       <c r="AB132" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC132" t="n">
         <v>101</v>
       </c>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF132" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG132" t="n">
         <v>10</v>
       </c>
       <c r="AH132" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI132" t="n">
         <v>23</v>
@@ -16239,13 +16239,13 @@
         <v>3.2</v>
       </c>
       <c r="I133" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J133" t="n">
         <v>1.08</v>
       </c>
       <c r="K133" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L133" t="n">
         <v>1.44</v>
@@ -16278,7 +16278,7 @@
         <v>12</v>
       </c>
       <c r="V133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W133" t="n">
         <v>26</v>
@@ -16370,16 +16370,16 @@
         <v>9</v>
       </c>
       <c r="L134" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M134" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N134" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O134" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P134" t="n">
         <v>1.44</v>
@@ -16388,16 +16388,16 @@
         <v>2.63</v>
       </c>
       <c r="R134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S134" t="n">
         <v>1.95</v>
       </c>
-      <c r="S134" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T134" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U134" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V134" t="n">
         <v>12</v>
@@ -16412,7 +16412,7 @@
         <v>41</v>
       </c>
       <c r="Z134" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA134" t="n">
         <v>6</v>
@@ -16424,10 +16424,10 @@
         <v>51</v>
       </c>
       <c r="AD134" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE134" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF134" t="n">
         <v>10</v>
@@ -16442,7 +16442,7 @@
         <v>19</v>
       </c>
       <c r="AJ134" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
@@ -16477,43 +16477,43 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H135" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I135" t="n">
         <v>2.1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L135" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M135" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N135" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O135" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P135" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q135" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R135" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S135" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T135" t="n">
         <v>11</v>
@@ -16531,13 +16531,13 @@
         <v>26</v>
       </c>
       <c r="Y135" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB135" t="n">
         <v>13</v>
@@ -16546,7 +16546,7 @@
         <v>41</v>
       </c>
       <c r="AD135" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE135" t="n">
         <v>8.5</v>
@@ -16561,10 +16561,10 @@
         <v>19</v>
       </c>
       <c r="AI135" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ135" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
@@ -16599,19 +16599,19 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H136" t="n">
         <v>3</v>
       </c>
       <c r="I136" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J136" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K136" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L136" t="n">
         <v>1.5</v>
@@ -16638,16 +16638,16 @@
         <v>1.67</v>
       </c>
       <c r="T136" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U136" t="n">
         <v>15</v>
       </c>
       <c r="V136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W136" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X136" t="n">
         <v>34</v>
@@ -16674,16 +16674,16 @@
         <v>6</v>
       </c>
       <c r="AF136" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG136" t="n">
         <v>10</v>
       </c>
       <c r="AH136" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI136" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ136" t="n">
         <v>41</v>
@@ -16721,13 +16721,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H137" t="n">
         <v>3.5</v>
       </c>
       <c r="I137" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="J137" t="n">
         <v>1.06</v>
@@ -16763,10 +16763,10 @@
         <v>10</v>
       </c>
       <c r="U137" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V137" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W137" t="n">
         <v>41</v>
@@ -16796,7 +16796,7 @@
         <v>6.5</v>
       </c>
       <c r="AF137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG137" t="n">
         <v>9</v>
@@ -16858,16 +16858,16 @@
         <v>7</v>
       </c>
       <c r="L138" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M138" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N138" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O138" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P138" t="n">
         <v>1.53</v>
@@ -16980,10 +16980,10 @@
         <v>13</v>
       </c>
       <c r="L139" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M139" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N139" t="n">
         <v>1.8</v>
@@ -17037,7 +17037,7 @@
         <v>201</v>
       </c>
       <c r="AE139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF139" t="n">
         <v>21</v>
@@ -17087,13 +17087,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>3.1</v>
       </c>
       <c r="I140" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J140" t="n">
         <v>1.08</v>
@@ -17129,7 +17129,7 @@
         <v>8</v>
       </c>
       <c r="U140" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V140" t="n">
         <v>12</v>
@@ -17153,22 +17153,22 @@
         <v>17</v>
       </c>
       <c r="AC140" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD140" t="n">
         <v>900</v>
       </c>
       <c r="AE140" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF140" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG140" t="n">
         <v>10</v>
       </c>
       <c r="AH140" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI140" t="n">
         <v>21</v>
@@ -17331,13 +17331,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>3.2</v>
       </c>
       <c r="I142" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J142" t="n">
         <v>1.07</v>
@@ -17453,7 +17453,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H143" t="n">
         <v>3.4</v>
@@ -17468,16 +17468,16 @@
         <v>11</v>
       </c>
       <c r="L143" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M143" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N143" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O143" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P143" t="n">
         <v>1.4</v>
@@ -17486,16 +17486,16 @@
         <v>2.75</v>
       </c>
       <c r="R143" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S143" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T143" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V143" t="n">
         <v>10</v>
@@ -17510,22 +17510,22 @@
         <v>29</v>
       </c>
       <c r="Z143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA143" t="n">
         <v>6.5</v>
       </c>
       <c r="AB143" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC143" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD143" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE143" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF143" t="n">
         <v>13</v>
@@ -17575,19 +17575,19 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>3.1</v>
       </c>
       <c r="I144" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J144" t="n">
         <v>1.08</v>
       </c>
       <c r="K144" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L144" t="n">
         <v>1.4</v>
@@ -17617,7 +17617,7 @@
         <v>6.5</v>
       </c>
       <c r="U144" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V144" t="n">
         <v>9.5</v>
@@ -17644,19 +17644,19 @@
         <v>51</v>
       </c>
       <c r="AD144" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE144" t="n">
         <v>8.5</v>
       </c>
       <c r="AF144" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG144" t="n">
         <v>13</v>
       </c>
       <c r="AH144" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI144" t="n">
         <v>29</v>
@@ -17668,7 +17668,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>OryCCBMk</t>
+          <t>4bfuIXbS</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -17688,109 +17688,109 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H145" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K145" t="n">
+        <v>15</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q145" t="n">
         <v>3.25</v>
       </c>
-      <c r="I145" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J145" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K145" t="n">
-        <v>9</v>
-      </c>
-      <c r="L145" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M145" t="n">
-        <v>3</v>
-      </c>
-      <c r="N145" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O145" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P145" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>2.63</v>
-      </c>
       <c r="R145" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="S145" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="T145" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U145" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V145" t="n">
         <v>9.5</v>
       </c>
       <c r="W145" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X145" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y145" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Z145" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA145" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB145" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF145" t="n">
         <v>15</v>
       </c>
-      <c r="AC145" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE145" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF145" t="n">
-        <v>17</v>
-      </c>
       <c r="AG145" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH145" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI145" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AJ145" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>lKNpXyNc</t>
+          <t>OryCCBMk</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -17800,103 +17800,119 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H146" t="n">
         <v>3.2</v>
       </c>
       <c r="I146" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+        <v>3.4</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K146" t="n">
+        <v>9</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M146" t="n">
+        <v>3</v>
+      </c>
       <c r="N146" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="O146" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S146" t="n">
+        <v>1.8</v>
+      </c>
       <c r="T146" t="n">
         <v>7</v>
       </c>
       <c r="U146" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V146" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>19</v>
+      </c>
+      <c r="X146" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z146" t="n">
         <v>8.5</v>
       </c>
-      <c r="V146" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="W146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X146" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y146" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z146" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AA146" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AB146" t="n">
-        <v>10.25</v>
+        <v>15</v>
       </c>
       <c r="AC146" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AD146" t="n">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="AE146" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AF146" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG146" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AH146" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AI146" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ146" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MXLhVFiA</t>
+          <t>lKNpXyNc</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -17906,7 +17922,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -17916,91 +17932,93 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>BFC Daugavpils</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>12</v>
+        <v>1.91</v>
       </c>
       <c r="H147" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="I147" t="n">
-        <v>1.16</v>
+        <v>3.7</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="O147" t="n">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="n">
-        <v>30</v>
+        <v>6.7</v>
       </c>
       <c r="U147" t="n">
-        <v>80</v>
+        <v>8.25</v>
       </c>
       <c r="V147" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="W147" t="n">
-        <v>350</v>
+        <v>14.5</v>
       </c>
       <c r="X147" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="Y147" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Z147" t="n">
-        <v>17.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA147" t="n">
-        <v>11.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB147" t="n">
-        <v>23</v>
+        <v>10.25</v>
       </c>
       <c r="AC147" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD147" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>200</v>
+      </c>
       <c r="AE147" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>5.6</v>
+        <v>18.5</v>
       </c>
       <c r="AG147" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH147" t="n">
-        <v>5.8</v>
+        <v>45</v>
       </c>
       <c r="AI147" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AJ147" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>8UmPVi7M</t>
+          <t>MXLhVFiA</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -18010,101 +18028,103 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>LITHUANIA - A LYGA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Zalgiris</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Dainava Alytus</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.26</v>
+        <v>11.75</v>
       </c>
       <c r="H148" t="n">
-        <v>4.85</v>
+        <v>5.7</v>
       </c>
       <c r="I148" t="n">
-        <v>9</v>
+        <v>1.18</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="O148" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="n">
-        <v>5.6</v>
+        <v>29</v>
       </c>
       <c r="U148" t="n">
-        <v>4.9</v>
+        <v>80</v>
       </c>
       <c r="V148" t="n">
-        <v>7.7</v>
+        <v>32</v>
       </c>
       <c r="W148" t="n">
-        <v>6.1</v>
+        <v>300</v>
       </c>
       <c r="X148" t="n">
-        <v>9.5</v>
+        <v>120</v>
       </c>
       <c r="Y148" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="Z148" t="n">
-        <v>11.75</v>
+        <v>16.5</v>
       </c>
       <c r="AA148" t="n">
-        <v>8.75</v>
+        <v>10.75</v>
       </c>
       <c r="AB148" t="n">
         <v>22</v>
       </c>
       <c r="AC148" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD148" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>600</v>
+      </c>
       <c r="AE148" t="n">
-        <v>17.5</v>
+        <v>7.2</v>
       </c>
       <c r="AF148" t="n">
-        <v>50</v>
+        <v>5.5</v>
       </c>
       <c r="AG148" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ148" t="n">
         <v>24</v>
-      </c>
-      <c r="AH148" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI148" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>pAs3O9ad</t>
+          <t>8UmPVi7M</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -18114,7 +18134,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -18124,95 +18144,91 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Dziugas Telsiai</t>
+          <t>Zalgiris</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Suduva</t>
+          <t>Dainava Alytus</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.85</v>
+        <v>1.25</v>
       </c>
       <c r="H149" t="n">
-        <v>2.85</v>
+        <v>4.75</v>
       </c>
       <c r="I149" t="n">
-        <v>2.45</v>
+        <v>10.25</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M149" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>2.12</v>
-      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U149" t="n">
-        <v>10.5</v>
+        <v>4.9</v>
       </c>
       <c r="V149" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W149" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X149" t="n">
         <v>9.5</v>
       </c>
-      <c r="W149" t="n">
-        <v>27</v>
-      </c>
-      <c r="X149" t="n">
-        <v>25</v>
-      </c>
       <c r="Y149" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Z149" t="n">
-        <v>6.1</v>
+        <v>11.25</v>
       </c>
       <c r="AA149" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AB149" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC149" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD149" t="inlineStr"/>
       <c r="AE149" t="n">
-        <v>5.2</v>
+        <v>19</v>
       </c>
       <c r="AF149" t="n">
-        <v>8.75</v>
+        <v>60</v>
       </c>
       <c r="AG149" t="n">
-        <v>8.5</v>
+        <v>27</v>
       </c>
       <c r="AH149" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="AI149" t="n">
-        <v>19.5</v>
+        <v>120</v>
       </c>
       <c r="AJ149" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>fmmdSlrp</t>
+          <t>pAs3O9ad</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -18222,119 +18238,105 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>LITHUANIA - A LYGA</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Dziugas Telsiai</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Suduva</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.35</v>
+        <v>2.85</v>
       </c>
       <c r="H150" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="I150" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K150" t="n">
-        <v>9.5</v>
-      </c>
+        <v>2.45</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="M150" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N150" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O150" t="n">
-        <v>1.83</v>
-      </c>
+        <v>2.22</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
       <c r="P150" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R150" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S150" t="n">
-        <v>2</v>
-      </c>
+        <v>2.12</v>
+      </c>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
       <c r="T150" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="U150" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V150" t="n">
         <v>9.5</v>
       </c>
       <c r="W150" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="X150" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Y150" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Z150" t="n">
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="AA150" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB150" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC150" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD150" t="n">
-        <v>201</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AD150" t="inlineStr"/>
       <c r="AE150" t="n">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="AF150" t="n">
-        <v>15</v>
+        <v>8.75</v>
       </c>
       <c r="AG150" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AH150" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AI150" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AJ150" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>4vSj7N1S</t>
+          <t>fmmdSlrp</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -18344,119 +18346,119 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Raja Beni Mellal</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="G151" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I151" t="n">
         <v>3.1</v>
       </c>
-      <c r="H151" t="n">
-        <v>3</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2.2</v>
-      </c>
       <c r="J151" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K151" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L151" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M151" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="N151" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="O151" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="P151" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S151" t="n">
         <v>2</v>
       </c>
-      <c r="S151" t="n">
-        <v>1.73</v>
-      </c>
       <c r="T151" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U151" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V151" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="W151" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="X151" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y151" t="n">
         <v>29</v>
       </c>
-      <c r="Y151" t="n">
-        <v>41</v>
-      </c>
       <c r="Z151" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AA151" t="n">
         <v>6</v>
       </c>
       <c r="AB151" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC151" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD151" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AE151" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AF151" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH151" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI151" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ151" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>bTZlR1wR</t>
+          <t>4vSj7N1S</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -18466,119 +18468,119 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Raja Beni Mellal</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H152" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="J152" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K152" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L152" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="M152" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="N152" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="O152" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="P152" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q152" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R152" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S152" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="T152" t="n">
+        <v>8</v>
+      </c>
+      <c r="U152" t="n">
+        <v>15</v>
+      </c>
+      <c r="V152" t="n">
         <v>12</v>
       </c>
-      <c r="U152" t="n">
-        <v>21</v>
-      </c>
-      <c r="V152" t="n">
-        <v>15</v>
-      </c>
       <c r="W152" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X152" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y152" t="n">
         <v>41</v>
       </c>
       <c r="Z152" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF152" t="n">
         <v>10</v>
       </c>
-      <c r="AA152" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB152" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC152" t="n">
+      <c r="AG152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ152" t="n">
         <v>41</v>
-      </c>
-      <c r="AD152" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE152" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF152" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG152" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH152" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI152" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ152" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IDGLLu1l</t>
+          <t>bTZlR1wR</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -18588,7 +18590,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -18598,58 +18600,58 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H153" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I153" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="J153" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K153" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L153" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="M153" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N153" t="n">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="O153" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="P153" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q153" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R153" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S153" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T153" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="U153" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="V153" t="n">
         <v>15</v>
@@ -18658,31 +18660,31 @@
         <v>41</v>
       </c>
       <c r="X153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y153" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z153" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AA153" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC153" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD153" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AE153" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AF153" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG153" t="n">
         <v>8.5</v>
@@ -18691,16 +18693,16 @@
         <v>15</v>
       </c>
       <c r="AI153" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ153" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ng8xIc0D</t>
+          <t>IDGLLu1l</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -18720,109 +18722,109 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="H154" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I154" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="J154" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K154" t="n">
+        <v>19</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M154" t="n">
+        <v>6</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>4</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T154" t="n">
+        <v>19</v>
+      </c>
+      <c r="U154" t="n">
+        <v>26</v>
+      </c>
+      <c r="V154" t="n">
         <v>15</v>
       </c>
-      <c r="L154" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M154" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N154" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O154" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P154" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R154" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S154" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T154" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U154" t="n">
-        <v>11</v>
-      </c>
-      <c r="V154" t="n">
-        <v>9</v>
-      </c>
       <c r="W154" t="n">
+        <v>41</v>
+      </c>
+      <c r="X154" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z154" t="n">
         <v>21</v>
       </c>
-      <c r="X154" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y154" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z154" t="n">
-        <v>13</v>
-      </c>
       <c r="AA154" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB154" t="n">
         <v>12</v>
       </c>
       <c r="AC154" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD154" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI154" t="n">
         <v>12</v>
       </c>
-      <c r="AF154" t="n">
+      <c r="AJ154" t="n">
         <v>19</v>
-      </c>
-      <c r="AG154" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH154" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI154" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ154" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>bsFNu1hK</t>
+          <t>ng8xIc0D</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -18842,22 +18844,22 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H155" t="n">
         <v>3.5</v>
       </c>
       <c r="I155" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J155" t="n">
         <v>1.03</v>
@@ -18866,16 +18868,16 @@
         <v>15</v>
       </c>
       <c r="L155" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M155" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N155" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O155" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P155" t="n">
         <v>1.3</v>
@@ -18893,13 +18895,13 @@
         <v>10</v>
       </c>
       <c r="U155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V155" t="n">
         <v>9</v>
       </c>
       <c r="W155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X155" t="n">
         <v>15</v>
@@ -18908,7 +18910,7 @@
         <v>21</v>
       </c>
       <c r="Z155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA155" t="n">
         <v>7</v>
@@ -18926,25 +18928,25 @@
         <v>13</v>
       </c>
       <c r="AF155" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH155" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI155" t="n">
         <v>23</v>
       </c>
       <c r="AJ155" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>rFjfzuGs</t>
+          <t>bsFNu1hK</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -18954,7 +18956,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -18964,109 +18966,109 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.25</v>
+        <v>2.25</v>
       </c>
       <c r="H156" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="I156" t="n">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="J156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K156" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L156" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M156" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="N156" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="O156" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="P156" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q156" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R156" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S156" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="T156" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="U156" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="V156" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="W156" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="X156" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="Y156" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Z156" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA156" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AB156" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC156" t="n">
         <v>41</v>
       </c>
       <c r="AD156" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE156" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF156" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AG156" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH156" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AI156" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AJ156" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>QTM2RwVP</t>
+          <t>rFjfzuGs</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -19076,119 +19078,119 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="H157" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I157" t="n">
-        <v>2.88</v>
+        <v>1.45</v>
       </c>
       <c r="J157" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K157" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L157" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="M157" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N157" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="O157" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P157" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q157" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R157" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="S157" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="T157" t="n">
+        <v>19</v>
+      </c>
+      <c r="U157" t="n">
+        <v>34</v>
+      </c>
+      <c r="V157" t="n">
+        <v>19</v>
+      </c>
+      <c r="W157" t="n">
+        <v>67</v>
+      </c>
+      <c r="X157" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH157" t="n">
         <v>11</v>
       </c>
-      <c r="U157" t="n">
-        <v>13</v>
-      </c>
-      <c r="V157" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W157" t="n">
+      <c r="AI157" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ157" t="n">
         <v>21</v>
-      </c>
-      <c r="X157" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y157" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z157" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA157" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB157" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC157" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD157" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE157" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF157" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG157" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH157" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI157" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ157" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ma8YLHhm</t>
+          <t>QTM2RwVP</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -19208,40 +19210,40 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H158" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I158" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J158" t="n">
         <v>1.03</v>
       </c>
       <c r="K158" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L158" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M158" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N158" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O158" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P158" t="n">
         <v>1.29</v>
@@ -19250,34 +19252,34 @@
         <v>3.5</v>
       </c>
       <c r="R158" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S158" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T158" t="n">
         <v>11</v>
       </c>
       <c r="U158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V158" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W158" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X158" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y158" t="n">
         <v>21</v>
       </c>
       <c r="Z158" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA158" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB158" t="n">
         <v>12</v>
@@ -19286,22 +19288,22 @@
         <v>34</v>
       </c>
       <c r="AD158" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE158" t="n">
         <v>13</v>
       </c>
       <c r="AF158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG158" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH158" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI158" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ158" t="n">
         <v>26</v>
@@ -19310,7 +19312,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IR1sKeNa</t>
+          <t>Ma8YLHhm</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -19330,109 +19332,109 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Hodd</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="H159" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I159" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="J159" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K159" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L159" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="M159" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N159" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="O159" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="P159" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="Q159" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R159" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S159" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="T159" t="n">
         <v>11</v>
       </c>
       <c r="U159" t="n">
+        <v>12</v>
+      </c>
+      <c r="V159" t="n">
+        <v>9</v>
+      </c>
+      <c r="W159" t="n">
+        <v>19</v>
+      </c>
+      <c r="X159" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z159" t="n">
         <v>17</v>
       </c>
-      <c r="V159" t="n">
+      <c r="AA159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB159" t="n">
         <v>12</v>
       </c>
-      <c r="W159" t="n">
+      <c r="AC159" t="n">
         <v>34</v>
       </c>
-      <c r="X159" t="n">
+      <c r="AD159" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ159" t="n">
         <v>26</v>
-      </c>
-      <c r="Y159" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z159" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA159" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB159" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC159" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD159" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE159" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF159" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG159" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH159" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI159" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ159" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>U1LHRQCN</t>
+          <t>IR1sKeNa</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -19442,117 +19444,119 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Hodd</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K160" t="n">
+        <v>11</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q160" t="n">
         <v>3</v>
       </c>
-      <c r="I160" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K160" t="n">
-        <v>7</v>
-      </c>
-      <c r="L160" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M160" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N160" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O160" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P160" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S160" t="n">
         <v>2.1</v>
       </c>
-      <c r="S160" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T160" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="U160" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="V160" t="n">
         <v>12</v>
       </c>
       <c r="W160" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X160" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y160" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC160" t="n">
         <v>41</v>
       </c>
-      <c r="Z160" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA160" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB160" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC160" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD160" t="inlineStr"/>
+      <c r="AD160" t="n">
+        <v>151</v>
+      </c>
       <c r="AE160" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF160" t="n">
         <v>11</v>
       </c>
       <c r="AG160" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH160" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI160" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ160" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ160" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2T2RKBYR</t>
+          <t>U1LHRQCN</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -19562,113 +19566,117 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>3</v>
       </c>
       <c r="I161" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>7</v>
+      </c>
       <c r="L161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O161" t="n">
         <v>1.5</v>
       </c>
-      <c r="M161" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="N161" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O161" t="n">
-        <v>1.44</v>
-      </c>
       <c r="P161" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="R161" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S161" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T161" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="U161" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="V161" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="W161" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X161" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y161" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z161" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA161" t="n">
         <v>6</v>
       </c>
       <c r="AB161" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC161" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD161" t="inlineStr"/>
       <c r="AE161" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG161" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH161" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI161" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AJ161" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>YBgcFkdk</t>
+          <t>2T2RKBYR</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -19688,103 +19696,103 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sp. Carapegua</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Deportivo Santani</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H162" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="I162" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M162" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="N162" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="O162" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="P162" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="R162" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S162" t="n">
         <v>1.65</v>
       </c>
       <c r="T162" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U162" t="n">
-        <v>9.25</v>
+        <v>11.25</v>
       </c>
       <c r="V162" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="W162" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X162" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y162" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z162" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AA162" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AB162" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC162" t="n">
         <v>110</v>
       </c>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF162" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG162" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AH162" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI162" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ162" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>4h7FhyYb</t>
+          <t>YBgcFkdk</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -19794,129 +19802,125 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Sp. Carapegua</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Deportivo Santani</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="H163" t="n">
-        <v>4.75</v>
+        <v>3.15</v>
       </c>
       <c r="I163" t="n">
-        <v>7</v>
-      </c>
-      <c r="J163" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T163" t="n">
+        <v>6</v>
+      </c>
+      <c r="U163" t="n">
+        <v>9</v>
+      </c>
+      <c r="V163" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W163" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X163" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF163" t="n">
         <v>15</v>
       </c>
-      <c r="L163" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M163" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N163" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O163" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P163" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R163" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S163" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T163" t="n">
-        <v>8</v>
-      </c>
-      <c r="U163" t="n">
-        <v>7</v>
-      </c>
-      <c r="V163" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W163" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X163" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y163" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z163" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA163" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB163" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC163" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD163" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE163" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF163" t="n">
-        <v>41</v>
-      </c>
       <c r="AG163" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AH163" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AI163" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AJ163" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>x65NjF2B</t>
+          <t>4h7FhyYb</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>25/05/2025</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -19926,100 +19930,100 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I164" t="n">
+        <v>7</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K164" t="n">
+        <v>15</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M164" t="n">
         <v>4.5</v>
       </c>
-      <c r="J164" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K164" t="n">
-        <v>10</v>
-      </c>
-      <c r="L164" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M164" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N164" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="O164" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="P164" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R164" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S164" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T164" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="U164" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V164" t="n">
         <v>8.5</v>
       </c>
       <c r="W164" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X164" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z164" t="n">
         <v>15</v>
       </c>
-      <c r="X164" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y164" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z164" t="n">
+      <c r="AA164" t="n">
         <v>9</v>
       </c>
-      <c r="AA164" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB164" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC164" t="n">
         <v>51</v>
       </c>
       <c r="AD164" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE164" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF164" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AG164" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AH164" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI164" t="n">
         <v>51</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>41</v>
       </c>
       <c r="AJ164" t="n">
         <v>41</v>
@@ -20423,43 +20427,43 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H168" t="n">
         <v>4.5</v>
       </c>
       <c r="I168" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J168" t="n">
         <v>1.06</v>
       </c>
       <c r="K168" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L168" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M168" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N168" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O168" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P168" t="n">
         <v>1.4</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R168" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S168" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -20471,7 +20475,7 @@
         <v>9</v>
       </c>
       <c r="W168" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X168" t="n">
         <v>13</v>
@@ -20495,7 +20499,7 @@
         <v>1000</v>
       </c>
       <c r="AE168" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF168" t="n">
         <v>34</v>
@@ -20545,13 +20549,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>3.5</v>
       </c>
       <c r="I169" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J169" t="n">
         <v>1.04</v>
@@ -20572,10 +20576,10 @@
         <v>2.1</v>
       </c>
       <c r="P169" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q169" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R169" t="n">
         <v>1.67</v>
@@ -20593,7 +20597,7 @@
         <v>8.5</v>
       </c>
       <c r="W169" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X169" t="n">
         <v>15</v>
@@ -20911,19 +20915,19 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H172" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I172" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J172" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L172" t="n">
         <v>1.18</v>
@@ -20932,10 +20936,10 @@
         <v>4.5</v>
       </c>
       <c r="N172" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O172" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P172" t="n">
         <v>1.29</v>
@@ -20953,25 +20957,25 @@
         <v>8.5</v>
       </c>
       <c r="U172" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V172" t="n">
         <v>8.5</v>
       </c>
       <c r="W172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X172" t="n">
         <v>12</v>
       </c>
       <c r="Y172" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA172" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB172" t="n">
         <v>15</v>
@@ -20992,7 +20996,7 @@
         <v>19</v>
       </c>
       <c r="AH172" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI172" t="n">
         <v>41</v>
@@ -21397,94 +21401,94 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I176" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="J176" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K176" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L176" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M176" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N176" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O176" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P176" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="R176" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S176" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T176" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U176" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V176" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="W176" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X176" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y176" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z176" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA176" t="n">
         <v>6.8</v>
       </c>
       <c r="AB176" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AC176" t="n">
         <v>45</v>
       </c>
       <c r="AD176" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE176" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF176" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG176" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH176" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI176" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ176" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177">
@@ -21644,16 +21648,16 @@
         <v>2.15</v>
       </c>
       <c r="H178" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I178" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="J178" t="n">
         <v>1.04</v>
       </c>
       <c r="K178" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L178" t="n">
         <v>1.2</v>
@@ -21668,67 +21672,67 @@
         <v>2.2</v>
       </c>
       <c r="P178" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q178" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R178" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S178" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T178" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="U178" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V178" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W178" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X178" t="n">
         <v>15.5</v>
       </c>
       <c r="Y178" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z178" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA178" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AB178" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE178" t="n">
         <v>12</v>
       </c>
-      <c r="AC178" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD178" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE178" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF178" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG178" t="n">
         <v>10.5</v>
       </c>
       <c r="AH178" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI178" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ178" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179">
@@ -21763,13 +21767,13 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H179" t="n">
         <v>4.5</v>
       </c>
       <c r="I179" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J179" t="n">
         <v>1.01</v>
@@ -21778,16 +21782,16 @@
         <v>34</v>
       </c>
       <c r="L179" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="M179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N179" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O179" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P179" t="n">
         <v>1.14</v>
@@ -21796,19 +21800,19 @@
         <v>5.5</v>
       </c>
       <c r="R179" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S179" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T179" t="n">
+        <v>21</v>
+      </c>
+      <c r="U179" t="n">
         <v>19</v>
       </c>
-      <c r="U179" t="n">
-        <v>17</v>
-      </c>
       <c r="V179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W179" t="n">
         <v>21</v>
@@ -21829,16 +21833,16 @@
         <v>12</v>
       </c>
       <c r="AC179" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD179" t="n">
         <v>51</v>
       </c>
       <c r="AE179" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF179" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG179" t="n">
         <v>13</v>
@@ -22007,13 +22011,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="H181" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I181" t="n">
-        <v>7.9</v>
+        <v>10.25</v>
       </c>
       <c r="J181" t="n">
         <v>1.02</v>
@@ -22022,79 +22026,79 @@
         <v>10</v>
       </c>
       <c r="L181" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="M181" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="N181" t="n">
         <v>1.23</v>
       </c>
       <c r="O181" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="P181" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="Q181" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="R181" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="S181" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
       </c>
       <c r="U181" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="V181" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W181" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="X181" t="n">
         <v>9.75</v>
       </c>
       <c r="Y181" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z181" t="n">
         <v>11.25</v>
       </c>
       <c r="AA181" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AC181" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AD181" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AE181" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AF181" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AG181" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AH181" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="AI181" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ181" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182">
@@ -22287,10 +22291,10 @@
         <v>1.55</v>
       </c>
       <c r="S183" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T183" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="U183" t="n">
         <v>24</v>
@@ -22299,7 +22303,7 @@
         <v>12.5</v>
       </c>
       <c r="W183" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X183" t="n">
         <v>30</v>
@@ -22329,16 +22333,16 @@
         <v>10.5</v>
       </c>
       <c r="AG183" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH183" t="n">
         <v>16</v>
       </c>
       <c r="AI183" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ183" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="184">
@@ -22373,19 +22377,19 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H184" t="n">
         <v>3.3</v>
       </c>
       <c r="I184" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J184" t="n">
         <v>1.08</v>
       </c>
       <c r="K184" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L184" t="n">
         <v>1.4</v>
@@ -22421,10 +22425,10 @@
         <v>9</v>
       </c>
       <c r="W184" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X184" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y184" t="n">
         <v>34</v>
@@ -22448,19 +22452,19 @@
         <v>9.5</v>
       </c>
       <c r="AF184" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG184" t="n">
         <v>15</v>
       </c>
       <c r="AH184" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI184" t="n">
         <v>41</v>
       </c>
       <c r="AJ184" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185">
@@ -22626,22 +22630,22 @@
         <v>4.5</v>
       </c>
       <c r="J186" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K186" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L186" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M186" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N186" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O186" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P186" t="n">
         <v>1.4</v>
@@ -22751,19 +22755,19 @@
         <v>1.06</v>
       </c>
       <c r="K187" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L187" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M187" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N187" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O187" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P187" t="n">
         <v>1.44</v>
@@ -22808,7 +22812,7 @@
         <v>67</v>
       </c>
       <c r="AD187" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE187" t="n">
         <v>11</v>
@@ -22870,13 +22874,13 @@
         <v>1.7</v>
       </c>
       <c r="J188" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K188" t="n">
         <v>11</v>
       </c>
       <c r="L188" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M188" t="n">
         <v>3.5</v>
@@ -23004,10 +23008,10 @@
         <v>2.75</v>
       </c>
       <c r="N189" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O189" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P189" t="n">
         <v>1.5</v>
@@ -23236,13 +23240,13 @@
         <v>9.5</v>
       </c>
       <c r="J191" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K191" t="n">
         <v>13</v>
       </c>
       <c r="L191" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M191" t="n">
         <v>3.75</v>
@@ -23612,10 +23616,10 @@
         <v>5.5</v>
       </c>
       <c r="N194" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O194" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P194" t="n">
         <v>1.25</v>
@@ -23734,10 +23738,10 @@
         <v>3.75</v>
       </c>
       <c r="N195" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O195" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P195" t="n">
         <v>1.36</v>
@@ -24077,7 +24081,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>3.4</v>
@@ -24131,7 +24135,7 @@
         <v>26</v>
       </c>
       <c r="Y198" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z198" t="n">
         <v>12</v>
@@ -24149,7 +24153,7 @@
         <v>151</v>
       </c>
       <c r="AE198" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF198" t="n">
         <v>11</v>
@@ -24208,10 +24212,10 @@
         <v>1.8</v>
       </c>
       <c r="J199" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K199" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L199" t="n">
         <v>1.33</v>
@@ -24244,7 +24248,7 @@
         <v>23</v>
       </c>
       <c r="V199" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W199" t="n">
         <v>51</v>
@@ -24321,7 +24325,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H200" t="n">
         <v>3.3</v>
@@ -24363,7 +24367,7 @@
         <v>9</v>
       </c>
       <c r="U200" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V200" t="n">
         <v>11</v>
@@ -24375,7 +24379,7 @@
         <v>23</v>
       </c>
       <c r="Y200" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z200" t="n">
         <v>10</v>
@@ -24393,7 +24397,7 @@
         <v>251</v>
       </c>
       <c r="AE200" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF200" t="n">
         <v>12</v>
@@ -24687,7 +24691,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="H203" t="n">
         <v>12</v>
@@ -24952,10 +24956,10 @@
         <v>3.5</v>
       </c>
       <c r="N205" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O205" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P205" t="n">
         <v>1.36</v>
@@ -25175,10 +25179,10 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H207" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I207" t="n">
         <v>3.2</v>
@@ -25235,13 +25239,13 @@
         <v>15</v>
       </c>
       <c r="AA207" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB207" t="n">
         <v>12</v>
       </c>
       <c r="AC207" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD207" t="n">
         <v>126</v>
@@ -25297,90 +25301,90 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="H208" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I208" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M208" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="N208" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="O208" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P208" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R208" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S208" t="n">
         <v>1.72</v>
       </c>
       <c r="T208" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="U208" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="V208" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="W208" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="X208" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y208" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z208" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB208" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC208" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD208" t="n">
         <v>900</v>
       </c>
       <c r="AE208" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="AF208" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AG208" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH208" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AI208" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AJ208" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209">
@@ -25649,49 +25653,49 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H211" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="I211" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J211" t="n">
         <v>1.04</v>
       </c>
       <c r="K211" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L211" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M211" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="N211" t="n">
         <v>1.6</v>
       </c>
       <c r="O211" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="P211" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q211" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R211" t="n">
         <v>1.7</v>
       </c>
       <c r="S211" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T211" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="U211" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V211" t="n">
         <v>19</v>
@@ -25700,16 +25704,16 @@
         <v>150</v>
       </c>
       <c r="X211" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y211" t="n">
         <v>50</v>
       </c>
       <c r="Z211" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA211" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB211" t="n">
         <v>15</v>
@@ -25721,22 +25725,22 @@
         <v>400</v>
       </c>
       <c r="AE211" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF211" t="n">
         <v>8</v>
-      </c>
-      <c r="AF211" t="n">
-        <v>7.8</v>
       </c>
       <c r="AG211" t="n">
         <v>7.9</v>
       </c>
       <c r="AH211" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI211" t="n">
         <v>11</v>
       </c>
       <c r="AJ211" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
@@ -25771,46 +25775,46 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H212" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I212" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="J212" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K212" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L212" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M212" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N212" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O212" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="P212" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="R212" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S212" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="T212" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="U212" t="n">
         <v>13</v>
@@ -25822,28 +25826,28 @@
         <v>25</v>
       </c>
       <c r="X212" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y212" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z212" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA212" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AB212" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC212" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD212" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE212" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF212" t="n">
         <v>14</v>
@@ -25855,10 +25859,10 @@
         <v>28</v>
       </c>
       <c r="AI212" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ212" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213">
@@ -26900,10 +26904,10 @@
         <v>50</v>
       </c>
       <c r="Z221" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA221" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB221" t="n">
         <v>18.5</v>
@@ -26963,25 +26967,25 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H222" t="n">
         <v>3.8</v>
       </c>
       <c r="I222" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J222" t="n">
         <v>1.03</v>
       </c>
       <c r="K222" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L222" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M222" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N222" t="n">
         <v>1.57</v>
@@ -26996,10 +27000,10 @@
         <v>3.5</v>
       </c>
       <c r="R222" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S222" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T222" t="n">
         <v>11</v>
@@ -27011,7 +27015,7 @@
         <v>9</v>
       </c>
       <c r="W222" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X222" t="n">
         <v>15</v>
@@ -27035,19 +27039,19 @@
         <v>101</v>
       </c>
       <c r="AE222" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF222" t="n">
         <v>19</v>
       </c>
       <c r="AG222" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH222" t="n">
         <v>34</v>
       </c>
       <c r="AI222" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ222" t="n">
         <v>26</v>
